--- a/Encontrados_MyMaps.xlsx
+++ b/Encontrados_MyMaps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920852E0-CF34-430E-94AC-1338A0A93951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79A7A81-32BE-47EA-88CF-31F427381E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16935" yWindow="1035" windowWidth="11220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -94,6 +94,516 @@
   </si>
   <si>
     <t>R. Barretos, 434 - Mariquinhas</t>
+  </si>
+  <si>
+    <t>LEANDRO VITOR  - RUA MARILENE FERREIRA DOS SANTOS, 87 - JARDIM DOS COMERCIARIOS - BH</t>
+  </si>
+  <si>
+    <t>R. Marilene Ferreira dos Santos, 87 - Jardim Dos Comerciarios (Venda</t>
+  </si>
+  <si>
+    <t>LEONARDO DE LIMA - RUA IGUAÇU, 385, CONCORDIA - BH</t>
+  </si>
+  <si>
+    <t>LUCAS FERREIRA DA SILVA - RUA OTILIA CANDIDA NASCIMENTO, 204 - SANTA MONICA - BH</t>
+  </si>
+  <si>
+    <t>R. Otília Cândida Nascimento, 204 - Santa Monica</t>
+  </si>
+  <si>
+    <t>LUCINEI GOMES DA LUZ - RUA IMPÉRIO, 674 - EYMARD - BH</t>
+  </si>
+  <si>
+    <t>R. Império, 674 - Eymard</t>
+  </si>
+  <si>
+    <t>PAULO DE OLIVEIRA MAIA - RUA JOAO RODRIGUES GONÇALVES,  93 – VALE JATOBÁ - BH</t>
+  </si>
+  <si>
+    <t>R. João Rodrigues Gonçalves, 93 - Vale do Jatoba</t>
+  </si>
+  <si>
+    <t>ROBERTO DE SOUZA MARTINS - RUA JOAO PINHEIRO, 122, BEIJA FLOR - BH</t>
+  </si>
+  <si>
+    <t>R. João Pinheiro, 122 - Beija Flor</t>
+  </si>
+  <si>
+    <t>WALTER RIBEIRO DOS SANTOS - RUA PLATÃO, 137, NAZARÉ - BH</t>
+  </si>
+  <si>
+    <t>R. Platão, 137 - Nazare</t>
+  </si>
+  <si>
+    <t>WELSON SILVA PECANHA - RUA PAULO BRANDÃO,  350 - SANTA EFIGÊNIA - BH</t>
+  </si>
+  <si>
+    <t>R. Paulo Brandão, 350 - Santa Efigênia</t>
+  </si>
+  <si>
+    <t>WILLIAM GLAYSON RODRIGUES - AVELINO GIAROLA  705 CÉU AZUL  - BH</t>
+  </si>
+  <si>
+    <t>R. Avelino Giarola, 705 - Céu Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVANDRO REIS DA CUNHA  - RUA ELIAS SALOMÉ,  11, FERNÃO DIAS - BH </t>
+  </si>
+  <si>
+    <t>R. Elías Salomé, 11 - Dom Joaquim</t>
+  </si>
+  <si>
+    <t>ABRAAO CONCEICAO SILVA - RUA RIO COMPRIDO, 316 - JARDIM CALIFORNIA - CONTAGEM</t>
+  </si>
+  <si>
+    <t>R. Rio Comprido, 316 - Jardim California</t>
+  </si>
+  <si>
+    <t>FABIO SOARES - RUA ANTONIO BARBOSA DE OLIVEIRA FILHO  95 EUROPA  - CONTAGEM</t>
+  </si>
+  <si>
+    <t>R. Antônio Barbosa de Oliveira Filho, 95 - Europa</t>
+  </si>
+  <si>
+    <t>LAERTE DE OLIVEIRA RUELA JUNIOR - RUA QUATRO, 272 - TROPICAL - CONTAGEM</t>
+  </si>
+  <si>
+    <t>R. Pedra da Lua, 272 - Tropical</t>
+  </si>
+  <si>
+    <t>MARCIO MARINHO DA SILVA - RUA MONSENHOR MESIAS, 921, FLAMENGO - CONTAGEM</t>
+  </si>
+  <si>
+    <t>R. Monsenhor Messías, 921 - Flamengo</t>
+  </si>
+  <si>
+    <t>ODAIR ALVES GONÇALVES - RUA BECO MACHADO DE ASSIS,  78 - PARQUE SÃO JOÃO - CONTAGEM</t>
+  </si>
+  <si>
+    <t>Beco Machado de Assis, 78 - Parque Sao Joao</t>
+  </si>
+  <si>
+    <t>ODIVAN RAMOS PEDRO - RUA SÃO DIMAS, 197 - INDUSTRIAL - CONTAGEM</t>
+  </si>
+  <si>
+    <t>R. São Dimas, 197 - Industrial</t>
+  </si>
+  <si>
+    <t>RAFAEL DINIZ COELHO - RUA JOSE FRANCISCO CRUZ,  38- FUNCIONÁRIOS  - CONTAGEM</t>
+  </si>
+  <si>
+    <t>R. José Francisco da Cruz, 38 - Piraguara</t>
+  </si>
+  <si>
+    <t>SERGIO ALVES  - RUA CAÇAPAVA, 182 - RIACHO DAS PEDRAS - CONTAGEM</t>
+  </si>
+  <si>
+    <t>R. Caçapava, 182 - A Definir Em Campo</t>
+  </si>
+  <si>
+    <t>WALLACE ADRIANO COSTA - RUA JOAQUIN CAMARGO,  XXX - CENTRO - CONTAGEM</t>
+  </si>
+  <si>
+    <t>R. Joaquim Camargos - Contagem</t>
+  </si>
+  <si>
+    <t>WELINTON COSTA - RUA JOAQUIM JOSÉ, 1685, PONTE GRANDE - CONTAGEM</t>
+  </si>
+  <si>
+    <t>R. Joaquim José, 1685 - Fonte Grande</t>
+  </si>
+  <si>
+    <t>DANIEL BRITO ALVES BATISTA - RUA DAS JABUTICABEIRAS, 210 - NOVO RETIRO  - ESMERALDAS</t>
+  </si>
+  <si>
+    <t>R. das Jabuticabeiras, 210 - Novo Retiro</t>
+  </si>
+  <si>
+    <t>ROSENEY PORFIRIO DA SILVA - RUA BOTAFOGO, 249.DURVAL DE BARROS - IBIRITÉ</t>
+  </si>
+  <si>
+    <t>R. Botafogo, 249 - Durval de Barros</t>
+  </si>
+  <si>
+    <t>VALDEVINO GOMES DA SILVA - RUA CACHOEIRO, 344 - JARDIM DAS ROSAS - IBIRITÉ</t>
+  </si>
+  <si>
+    <t>R. Cachoeiro, 344 - Jardim das Rosas</t>
+  </si>
+  <si>
+    <t>JOSCK JUAN SANTOS NASCIMENTO - RUA JOSE MARIA DE MENEZES, 20 - BOTAFOGO - JUSTINOPOLIS</t>
+  </si>
+  <si>
+    <t>R. José Maria de Menezes, 20 - Botafogo (Justinópolis)</t>
+  </si>
+  <si>
+    <t>ANDRE VINICIUS SOARES - AVENIDA SÃO SEBASTIÃO, 1133 - CAMPINHO - LAGOA SANTA</t>
+  </si>
+  <si>
+    <t>Residencial Lisboa</t>
+  </si>
+  <si>
+    <t>DECIO EVANGELISTA RODRIGUES - RUA FELÍCIANO CASTILHO, 25 - CONJUNTO HABITACIONAL OUVIDIO GUERRA - LAGOA SANTA</t>
+  </si>
+  <si>
+    <t>R. Felíciano Castilho, 25 - Conj. Hab. Ouvidio Guerra</t>
+  </si>
+  <si>
+    <t>AFONSO ELZEPER MOREIRA LEITE - RUA FLORIANÓPOLIS, 275 - BOM JESUS - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>R. Florianópolis, 275 - Bom Jesus</t>
+  </si>
+  <si>
+    <t>ALDAIR ANTONIO DE LIMA  - RUA JOSÉ ANTÔNIO DE JESUS, 95 - SÃO SEBASTIÃO   - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>R. José Antônio de jesus, 95a - Progresso</t>
+  </si>
+  <si>
+    <t>ANSELMO DA SILVA FERREIRA - RUA TRÊS MARIAS, 76 - SÃO CRISTOVAO - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>R. Três Marias, 76 - São Cristovao</t>
+  </si>
+  <si>
+    <t>BRUNO GUILHERME CARVALHO DE OLIVEIRA MARTINS - RUA BOLÍVIA, 321 - BOM JESUS - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>R. Bolívia, 321 - Bom Jesus</t>
+  </si>
+  <si>
+    <t>DIEGO ELIAS PEREIRA  - RUA FLORIANOPOLIS,  504 - BOM JESUS - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>R. Florianópolis, 504 - Bom Jesus</t>
+  </si>
+  <si>
+    <t>JEFFERSON RICARDO FERREIRA - RUA FRANCISCO SANTOS, 11, FLORESTA - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>R. Francisco Santos - Floresta</t>
+  </si>
+  <si>
+    <t>LYER SIRONS B CORRÊA - RUA CARIJOS, 39 - SÃO SEBASTIÃO  - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>R. Carijós, 39 - Centro</t>
+  </si>
+  <si>
+    <t>WILLIAN MACHADO NETO - RUA ANTÔNIO INÁCIO  104 - SÃO SEBASTIÃO - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>R. Antônio Inácio, 104 - Floresta</t>
+  </si>
+  <si>
+    <t>DOUGLAS LUCIO RAMOS - RUA MARIA DA CONCEIÇÃO FERNANDES  133 LAGOA SANTO ANTONIO  - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>R. Maria da Conceição Fernandes, 133 - A Definir</t>
+  </si>
+  <si>
+    <t>FELIPE VICTOR C AMERICO - RUA FARMACEUTICO JOSÉ MARTINS  285 FELIPE CLAUDIO - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>R. Farmacêutico José Martins, 285 - A Definir</t>
+  </si>
+  <si>
+    <t>FLAVIO DA SILVA FERNANDES - RUA MACHADO VIEIRA 98 - CENTRO - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>R. Machado Viêira, 98 - Cachoeira Grande</t>
+  </si>
+  <si>
+    <t>GUILHERME LOPEZ - RUA JOSÉ C MAIA, 245 - MOCAMBEIRO - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>R. José C Maia, 245 - Mocambeiro</t>
+  </si>
+  <si>
+    <t>HUGO LEONARDO SILVA  - RUA MAGNO CLARET, 587 - LAGOA DE SANTO ANTONIO  - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>R. Magno Claret, 587 - Lagoa de Santo Antônio</t>
+  </si>
+  <si>
+    <t>JULIAN CESAR RESENDE LEAL - AVENIDA PERGENTINO SOUZA SANTOS  771 - TEOTÔNIO BATISTA - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>Av. Pergentino Souza Santos, 771 - Teotônio Batista de Freitas</t>
+  </si>
+  <si>
+    <t>MARCIO RODRIGUES GONCALVES - JOÃO MIGUEL RIBEIRO, 115 - SAGUAREMA - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>João Miguel Ribeiro, 115 - Saguarema</t>
+  </si>
+  <si>
+    <t>MARCIO VIEIRA MACENA - RUA JOSÉ FERREIRA DINIZ, 187, TEOTONIO BATISTA - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>R. José Ferreira Diniz, 187 - Teotônio Batista de Freitas</t>
+  </si>
+  <si>
+    <t>MARCOS HENRIQUE DUARTE COSTA - RUA ELIAS MARQUES, 433 - TEOTÓNIO BATISTA DE FREITAS - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>Av. Elías Marquês, 433 - Teotônio Batista de Freitas</t>
+  </si>
+  <si>
+    <t>RAFAEL WASHINGTON VIEIRA - RUA SEBASTIÃO ANDRADE, 130 - FELIPE CLAUDIO  - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>R. Sebastião Andrade, 130 - COHAB</t>
+  </si>
+  <si>
+    <t>ROGER LUCAS DE FREITAS SANTOS - RUA LUIS PIRES 33 - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>R. Luís Pires Guimarães, 33 - COHAB</t>
+  </si>
+  <si>
+    <t>TIAGO GOMES - RUA LUCIO CARDOSO TEIXEIRA  277 BLOCO A CONJUNTO AMELIA TORRES TRIANGULO - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>Conjunto Amelia Torres</t>
+  </si>
+  <si>
+    <t>MANOELITO FAGUNDES DA SILVA - RUA RICARDINO N110, SANTO ANTONIO DE ROÇAS GRANDE - Sabará</t>
+  </si>
+  <si>
+    <t>R. Ricardino - Santo Antonio (Roca Grande)</t>
+  </si>
+  <si>
+    <t>FABRICIO AUGUSTO CARDOZO - RUA DOM CABRAL 92, PADRE CHIQUINHO - SÁBARA</t>
+  </si>
+  <si>
+    <t>R. Dom Cabral, 92 - Padre Chiquinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENATO P. GONÇALVES - RUA ALBERT CHARLEY, 1773 - PACIÊNCIA  - SABARÁ </t>
+  </si>
+  <si>
+    <t>Av. Albert Scharlé, 1773 - Paciência</t>
+  </si>
+  <si>
+    <t>ADRIANO RODRIGUES DA SILVA - RUA DO MÉXICO, 421 - INDUSTRIAL AMERICANO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. do México, 421 - Industrial Americano</t>
+  </si>
+  <si>
+    <t>ANTONIO LUIZ DA SILVA - AVENIDA RODRIGUES ALVES, 322 - INDUSTRIAL AMERICANO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>Av. Rodrigues Alves, 322 - Industrial Americano</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO FRANCISCO - RUA PRES. JOSÉ FELÍCIANO, 30A - QUARENTA E DOIS - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. Pres. José Felíciano, 30a - Quarenta e Dois</t>
+  </si>
+  <si>
+    <t>DENIS FERNANDO MARCO - RUA PARAGUAI 100 INDUSTRIAL AMERICANO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. do Paraguai, 100 - Industrial Americano</t>
+  </si>
+  <si>
+    <t>DIRCEU CLEBER BORGES  - RUA AUTO DO TANQUE, 805 - NOSSA SENHORA DO CARMO - Santa Luzia</t>
+  </si>
+  <si>
+    <t>R. Alto do Tanque, 805 - Nossa Sra. das Gracas</t>
+  </si>
+  <si>
+    <t>EDVALDO MACIEL JARDIM - RUA GUATEMALA  93 INDUSTRIAL AMERICANO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. Guatemala - Industrial Americano</t>
+  </si>
+  <si>
+    <t>FLAVIANO ALVES MUNIZ  - TRAVESSA A - BONANZA - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>Tv. A - Santa Luzia</t>
+  </si>
+  <si>
+    <t>GUILHERME LOPES DE ALMEIDA - RUA PARAIBUNA, 82, SANTA MATILDE - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. Paraíbuna, 82 - Santa Matilde</t>
+  </si>
+  <si>
+    <t>HUDSON DIAS RAMOS  - AVENIDA ETELVINO SOUZA LIMA,  2763 - PALMITAL - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>Av. Etelvino Souza Lima, 2763 - Conj. Palmital (Sao Benedito)</t>
+  </si>
+  <si>
+    <t>JOSÉ LUCAS DE JESUS - RUA ENGENHEIRO FELIPE GABRICH,  790 - SANTA MATILDE - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>Av. Eng. Felipe Gabrich, 790 - Quarenta e Dois</t>
+  </si>
+  <si>
+    <t>KLEBER DE AVILA TORRES - RUA MANOEL ALVES BRAN,  134, BELVEDERE - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. Manoel Alves Branco, 134 - Quarenta e Dois</t>
+  </si>
+  <si>
+    <t>MARCELO GUILHERME  - RUA JOÃO JOSÉ PEDRO, 135 - CORREGO FRIO  - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. José João Pedro, 135 - Córrego Frio</t>
+  </si>
+  <si>
+    <t>PAULO AFONSO FONSECA - RUA MANAUS, 39 - PADRE MIGUEL - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. Manaus, 39 - Padre Miguel</t>
+  </si>
+  <si>
+    <t>RICARDO ANTONIO SIQUEIRA - RUA DINAMARCA, 137 - BARONESA - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. Dinamarca, 137 - Baronesa</t>
+  </si>
+  <si>
+    <t>THIAGO GOMES AVELINO - RUA ADELINO DE ANDRADE, 149, ADEODATO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. Adélino Andrade, 149 - Adeodato</t>
+  </si>
+  <si>
+    <t>VAGNER DE MELO - RUA JABOTICATUBAS,  191 - BAIRRO: RIO DAS VELHAS - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. Jaboticatubas, 191 - Rio das Velhas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARLEN BARBOSA SANTOS - RUA CANADA, 660 - INDUSTRIAL AMERICANO - SANTA LUZIA </t>
+  </si>
+  <si>
+    <t>R. do Canadá, 660 - Industrial Americano</t>
+  </si>
+  <si>
+    <t>MARCO TULIO BATISTA DOS ANJOS - AVENIDA NICOLAU ELIAS SIMÃO, 916 - DOM PEDRO I  - SÃO JOSÉ DA LAPA</t>
+  </si>
+  <si>
+    <t>Av. Nicolau Elías Simão, 916 - Dom Pedro I</t>
+  </si>
+  <si>
+    <t>ADAIR GOMES DOS SANTOS  - RUA CEARÁ, 704 - SERRA AZUL - VESPASIANO</t>
+  </si>
+  <si>
+    <t>Serra Azul</t>
+  </si>
+  <si>
+    <t>ALEXANDRE DE CAMPOS SOUZA - RUA S, 256 - CAIERAS RUA COM SAIDA, PRÓXIMO CENTRO DE EVENTOS RISOLETA NEVES - VESPASIANO</t>
+  </si>
+  <si>
+    <t>Centro De Convenções Risoleta Neves</t>
+  </si>
+  <si>
+    <t>EDUARDO HENRIQUE DOS SANTOS MORAIS - RUA GERALDO FIRMINO DINIZ, 93 - VALE FORMOSO  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>Vale Formoso</t>
+  </si>
+  <si>
+    <t>FERNANDO COELHO SILVA - RUA RIO DE JANEIRO, 1528, CELVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>R. Rio de Janeiro, 1528 - Celvia</t>
+  </si>
+  <si>
+    <t>FERNANDO PATROCINIO DE JESUS  - RUA FIDELIS PROCÓPIO BRAGA, 91 - CAIEIRAS - VESPASIANO</t>
+  </si>
+  <si>
+    <t>R. Fidélis Procópio Braga, 91 - Bonsucesso</t>
+  </si>
+  <si>
+    <t>FLANKLIN SILVA BARROS - RUA EMÍLIO VASCONCELOS,  219 - CENTRO - VESPASIANO</t>
+  </si>
+  <si>
+    <t>R. Dr. Emílio Vasconcelos Costa, 219 - Centro</t>
+  </si>
+  <si>
+    <t>GILBERTO SANTOS DA SILVA - RUA 35, 249 - JEQUITIBÁ - VESPASIANO</t>
+  </si>
+  <si>
+    <t>R. Trinta e Cinco, 249 - Jequitibá</t>
+  </si>
+  <si>
+    <t>HUGO AUGUSTO DOS SANTOS - RUA PARAÍBA,  544 - CÉLVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>R. Paraíba, 544 - Serra Azul</t>
+  </si>
+  <si>
+    <t>ITALO MATHEUS B.  - RUA SANTO ANTONIO, 260,  RIBEIRÃO DA MATA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>R. Santo Antônio, 260 - Ribeirão da Mata</t>
+  </si>
+  <si>
+    <t>JASSON FERREIRA CAMPOS - RUA JORGE DIAS DE OLIVA, 870 - CELVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>R. Dr. Jorge Dias de Oliva, 870 - Celvia</t>
+  </si>
+  <si>
+    <t>JOAO VITOR TAVORA SILVA - RUA RIO DE JANEIRO, 1528 - CÉLVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>JOSE RAMON ISERNIA RODRIGUEZ - RUA PAULO FERREIRA DA COSTA,  1013 - VISTA ALEGRE - VESPASIANO</t>
+  </si>
+  <si>
+    <t>Av. Paulo Ferreira da Costa, 1013 - Vista Alegre</t>
+  </si>
+  <si>
+    <t>LEONARDO BATISTA - RUA PERNAMBUCO, 84A - CELVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>R. Pernambuco, 84a - Celvia</t>
+  </si>
+  <si>
+    <t>LEONARDO ALVES  - AVENIDA ADÉLIA ISSA,  1264 - CAIEIRAS - VESPASIANO</t>
+  </si>
+  <si>
+    <t>Av. Adélia Issa, 1264 - Caieiras</t>
+  </si>
+  <si>
+    <t>MARCO AURELIO VIEIRA - RUA CEARÁ  1453 CÉLVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>R. Ceará, 1453 - Celvia</t>
+  </si>
+  <si>
+    <t>PAULO HENRIQUE RODRIGUES FERREIRA - AVENIDA CARLOS MURTA FILHO 776 - GAVEA 2 - VESPASIANO</t>
+  </si>
+  <si>
+    <t>Av. Carlos Murta Filho, 776 - Bairro Gávea II</t>
+  </si>
+  <si>
+    <t>SEBASTIAO NERES PINTO JUNIOR - ALAMEDA SO REI, 125 - DOS IPÊS - VESPASIANO</t>
+  </si>
+  <si>
+    <t>Al. So Rei, 125 - Dos Ipês</t>
+  </si>
+  <si>
+    <t>SILVIO HUBINER DA SILVA - RUA BAENPEDI, 380 - SANTA CLARA. - VESPASIANO</t>
+  </si>
+  <si>
+    <t>R. Baependi, 380 - Santa Clara</t>
+  </si>
+  <si>
+    <t>VANDERSON DOS SANTOS ANDRE - AVENIDA THALES CHAGAS, 1587 - CELVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>Av. Thales Chagas, 1587 - Centro</t>
   </si>
 </sst>
 </file>
@@ -411,19 +921,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="125.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="125.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -445,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -456,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -467,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -478,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -489,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -500,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -511,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -522,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -533,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -542,6 +1050,952 @@
       </c>
       <c r="C11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
